--- a/Dataset/employment/economy_types.xlsx
+++ b/Dataset/employment/economy_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srihaasa\Documents\gfiles\CSCI5502-DataMining_Project\Dataset\employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12A19D-63EB-41FD-AA2C-A9416BAEBDAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CD9A8-C802-409C-B296-9363BD1F0122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="442">
   <si>
     <t>Country Code</t>
   </si>
@@ -84,15 +84,6 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>ARB</t>
-  </si>
-  <si>
-    <t>Arab World aggregate. Arab World is composed of members of the League of Arab States.</t>
-  </si>
-  <si>
-    <t>Arab World</t>
-  </si>
-  <si>
     <t>ARE</t>
   </si>
   <si>
@@ -267,15 +258,6 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>CEB</t>
-  </si>
-  <si>
-    <t>Central Europe and the Baltics aggregate.</t>
-  </si>
-  <si>
-    <t>Central Europe and the Baltics</t>
-  </si>
-  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -351,12 +333,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>Caribbean small states</t>
-  </si>
-  <si>
     <t>CUB</t>
   </si>
   <si>
@@ -408,45 +384,6 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>EAP</t>
-  </si>
-  <si>
-    <t>East Asia and Pacific regional aggregate (does not include high-income economies).</t>
-  </si>
-  <si>
-    <t>East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t>EAR</t>
-  </si>
-  <si>
-    <t>Early-dividend countries are mostly lower-middle-income countries further along the fertility transition. Fertility rates have fallen below four births per woman and the working-age share of the population is likely rising considerably.</t>
-  </si>
-  <si>
-    <t>Early-demographic dividend</t>
-  </si>
-  <si>
-    <t>EAS</t>
-  </si>
-  <si>
-    <t>East Asia and Pacific regional aggregate (includes all income levels).</t>
-  </si>
-  <si>
-    <t>ECA</t>
-  </si>
-  <si>
-    <t>Europe and Central Asia regional aggregate (does not include high-income economies).</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
-    <t>ECS</t>
-  </si>
-  <si>
-    <t>Europe and Central Asia regional aggregate (includes all income levels).</t>
-  </si>
-  <si>
     <t>ECU</t>
   </si>
   <si>
@@ -459,15 +396,6 @@
     <t>Egypt, Arab Rep.</t>
   </si>
   <si>
-    <t>EMU</t>
-  </si>
-  <si>
-    <t>Euro area aggregate.</t>
-  </si>
-  <si>
-    <t>Euro area</t>
-  </si>
-  <si>
     <t>ERI</t>
   </si>
   <si>
@@ -501,27 +429,9 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>EUU</t>
-  </si>
-  <si>
-    <t>European Union aggregate.</t>
-  </si>
-  <si>
-    <t>European Union</t>
-  </si>
-  <si>
-    <t>FCS</t>
-  </si>
-  <si>
-    <t>Fragile and conflict affected situations</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
-    <t>A simple multiplier is used to convert the national currencies of EMU members to euros. The following irrevocable euro conversion rate was adopted by the EU Council on January 1, 1999: 1 euro = 5.94573 Finnish markka. Please note that historical data before 1999 are not actual euros and are not comparable or suitable for aggregation across countries.</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -540,21 +450,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>FRO</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>FSM</t>
-  </si>
-  <si>
-    <t>Fiscal year ends on September 30; reporting period for national accounts data: FY. Based on the Pacific and Virgin Islands Training Initiative, national accounts data have been revised.</t>
-  </si>
-  <si>
-    <t>Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
     <t>GAB</t>
   </si>
   <si>
@@ -582,12 +477,6 @@
     <t>Ghana</t>
   </si>
   <si>
-    <t>GIB</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
     <t>GIN</t>
   </si>
   <si>
@@ -621,18 +510,6 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>GRD</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>GRL</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
     <t>GTM</t>
   </si>
   <si>
@@ -651,18 +528,12 @@
     <t>Guyana</t>
   </si>
   <si>
-    <t>HIC</t>
-  </si>
-  <si>
     <t>High income group aggregate. High-income economies are those in which 2019 GNI per capita was $12,536 or more.</t>
   </si>
   <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>On 1 July 1997 China resumed its exercise of sovereignty over Hong Kong. Unless otherwise noted, data for China do not include data for Hong Kong SAR, China; Macao SAR, China; or Taiwan, China. Agriculture value added includes mining and quarrying.</t>
-  </si>
-  <si>
     <t>Hong Kong SAR, China</t>
   </si>
   <si>
@@ -672,15 +543,9 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>HPC</t>
-  </si>
-  <si>
     <t>Heavily indebted poor countries aggregate.</t>
   </si>
   <si>
-    <t>Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
     <t>HRV</t>
   </si>
   <si>
@@ -702,66 +567,18 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>IBD</t>
-  </si>
-  <si>
     <t>IBRD only group aggregate.</t>
   </si>
   <si>
-    <t>IBRD only</t>
-  </si>
-  <si>
-    <t>IBT</t>
-  </si>
-  <si>
-    <t>IDA and IBRD total group aggregate (includes IDA only, IDA blend, and IBRD only).</t>
-  </si>
-  <si>
-    <t>IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t>IDA</t>
-  </si>
-  <si>
-    <t>IDA total group aggregate (includes IDA only and IDA blend).</t>
-  </si>
-  <si>
-    <t>IDA total</t>
-  </si>
-  <si>
-    <t>IDB</t>
-  </si>
-  <si>
-    <t>IDA blend group aggregate.</t>
-  </si>
-  <si>
-    <t>IDA blend</t>
-  </si>
-  <si>
     <t>IDN</t>
   </si>
   <si>
-    <t>Fiscal year end: March 31; reporting period for national accounts data: CY. Data for Indonesia include Timor-Leste through 1999 unless otherwise noted.</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>IDX</t>
-  </si>
-  <si>
     <t>IDA only group aggregate.</t>
   </si>
   <si>
-    <t>IDA only</t>
-  </si>
-  <si>
-    <t>IMN</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -861,18 +678,6 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>KIR</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>KNA</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -885,12 +690,6 @@
     <t>Kuwait</t>
   </si>
   <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
@@ -924,63 +723,24 @@
     <t>St. Lucia</t>
   </si>
   <si>
-    <t>LCN</t>
-  </si>
-  <si>
-    <t>LDC</t>
-  </si>
-  <si>
-    <t>Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t>LIC</t>
-  </si>
-  <si>
-    <t>Low income group aggregate. Low-income economies are those in which 2019 GNI per capita was $1,035 or less.</t>
-  </si>
-  <si>
-    <t>LIE</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>LKA</t>
   </si>
   <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>LMC</t>
-  </si>
-  <si>
     <t>Lower middle income group aggregate. Lower-middle-income economies are those in which 2019 GNI per capita was between $1,036 and $4,045.</t>
   </si>
   <si>
-    <t>LMY</t>
-  </si>
-  <si>
-    <t>Low &amp; middle income</t>
-  </si>
-  <si>
     <t>LSO</t>
   </si>
   <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>LTE</t>
-  </si>
-  <si>
-    <t>Late-demographic dividend</t>
-  </si>
-  <si>
     <t>LTU</t>
   </si>
   <si>
-    <t>A simple multiplier is used to convert the national currencies of EMU members to euros. The following irrevocable euro conversion rate entered into force on January 1, 2015: 1 euro = 3.45280 Lithuanian litas. Please note that historical data are not actual euros and are not comparable or suitable for aggregation across countries. Based on data from EUROSTAT, the new reference year is 2010.</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1011,30 +771,15 @@
     <t>Macao SAR, China</t>
   </si>
   <si>
-    <t>MAF</t>
-  </si>
-  <si>
-    <t>St. Martin (French part)</t>
-  </si>
-  <si>
     <t>MAR</t>
   </si>
   <si>
     <t>Morocco</t>
   </si>
   <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>MDA</t>
   </si>
   <si>
-    <t>Excluding Transnistria. For 1950-94, World Bank estimates using UN World Population Prospects' growth rates of whole Moldova.</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
@@ -1050,9 +795,6 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>MEA</t>
-  </si>
-  <si>
     <t>Middle East and North Africa regional aggregate (includes all income levels).</t>
   </si>
   <si>
@@ -1062,24 +804,9 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>MHL</t>
-  </si>
-  <si>
     <t>Fiscal year ends on September 30; reporting period for national accounts data: FY.</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>Middle income group aggregate. Middle-income economies are those in which 2017 GNI per capita was between $996 and $12,055.</t>
-  </si>
-  <si>
-    <t>Middle income</t>
-  </si>
-  <si>
     <t>MKD</t>
   </si>
   <si>
@@ -1107,18 +834,9 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>MNA</t>
-  </si>
-  <si>
-    <t>Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
     <t>MNE</t>
   </si>
   <si>
-    <t>Montenegro declared independence from Serbia and Montenegro on June 3, 2006. Where available, data for each country are shown separately. However, for Serbia, some indicators continue to include data for Montenegro through 2005.</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1128,12 +846,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>MNP</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
     <t>MOZ</t>
   </si>
   <si>
@@ -1167,9 +879,6 @@
     <t>Malaysia</t>
   </si>
   <si>
-    <t>NAC</t>
-  </si>
-  <si>
     <t>North America regional aggregate. There are no economies in North America classified as low or middle income.</t>
   </si>
   <si>
@@ -1227,36 +936,18 @@
     <t>Nepal</t>
   </si>
   <si>
-    <t>NRU</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>OED</t>
-  </si>
-  <si>
-    <t>OECD members</t>
-  </si>
-  <si>
     <t>OMN</t>
   </si>
   <si>
     <t>Oman</t>
   </si>
   <si>
-    <t>OSS</t>
-  </si>
-  <si>
-    <t>Other small states</t>
-  </si>
-  <si>
     <t>PAK</t>
   </si>
   <si>
@@ -1281,12 +972,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>PLW</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
     <t>PNG</t>
   </si>
   <si>
@@ -1299,15 +984,9 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>PRE</t>
-  </si>
-  <si>
     <t>Pre-dividend countries are mostly low-income countries, lagging in key human development indicators and with current fertility levels above four births per woman. They face very rapid population growth.</t>
   </si>
   <si>
-    <t>Pre-demographic dividend</t>
-  </si>
-  <si>
     <t>PRI</t>
   </si>
   <si>
@@ -1341,24 +1020,9 @@
     <t>West Bank and Gaza</t>
   </si>
   <si>
-    <t>PSS</t>
-  </si>
-  <si>
     <t>Pacific island small states aggregate.</t>
   </si>
   <si>
-    <t>Pacific island small states</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
-    <t>Post-dividend countries are mostly high-income countries where fertility has transitioned below replacement levels.</t>
-  </si>
-  <si>
-    <t>Post-demographic dividend</t>
-  </si>
-  <si>
     <t>PYF</t>
   </si>
   <si>
@@ -1389,9 +1053,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>SAS</t>
-  </si>
-  <si>
     <t>SAU</t>
   </si>
   <si>
@@ -1434,12 +1095,6 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>SMR</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
     <t>SOM</t>
   </si>
   <si>
@@ -1455,42 +1110,21 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>SSA</t>
-  </si>
-  <si>
     <t>Sub-Saharan Africa regional aggregate (does not include high-income economies).</t>
   </si>
   <si>
-    <t>Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
     <t>SSD</t>
   </si>
   <si>
     <t>South Sudan</t>
   </si>
   <si>
-    <t>SSF</t>
-  </si>
-  <si>
     <t>Sub-Saharan Africa regional aggregate (includes all income levels).</t>
   </si>
   <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>Small states (members of the Small States Forum) aggregate.</t>
-  </si>
-  <si>
-    <t>Small states</t>
-  </si>
-  <si>
     <t>STP</t>
   </si>
   <si>
-    <t>National account data were adjusted to reflect the new banknote (1 new Dobra STN = 1000 old Dobra STD)</t>
-  </si>
-  <si>
     <t>São Tomé and Principe</t>
   </si>
   <si>
@@ -1533,54 +1167,21 @@
     <t>Eswatini</t>
   </si>
   <si>
-    <t>SXM</t>
-  </si>
-  <si>
-    <t>Sint Maarten (Dutch part)</t>
-  </si>
-  <si>
-    <t>SYC</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
     <t>SYR</t>
   </si>
   <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
-    <t>TCA</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
     <t>TCD</t>
   </si>
   <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>TEA</t>
-  </si>
-  <si>
     <t>East Asia &amp; Pacific (IDA &amp; IBRD countries) aggregate.</t>
   </si>
   <si>
-    <t>East Asia &amp; Pacific (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>TEC</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD countries) aggregate.</t>
-  </si>
-  <si>
-    <t>Europe &amp; Central Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
     <t>TGO</t>
   </si>
   <si>
@@ -1608,54 +1209,27 @@
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>TLA</t>
-  </si>
-  <si>
     <t>Latin America &amp; the Caribbean (IDA &amp; IBRD countries) aggregate.</t>
   </si>
   <si>
-    <t>Latin America &amp; Caribbean (IDA &amp; IBRD)</t>
-  </si>
-  <si>
     <t>TLS</t>
   </si>
   <si>
     <t>Timor-Leste</t>
   </si>
   <si>
-    <t>TMN</t>
-  </si>
-  <si>
     <t>Middle East &amp; North Africa (IDA &amp; IBRD countries) aggregate.</t>
   </si>
   <si>
-    <t>Middle East &amp; North Africa (IDA &amp; IBRD)</t>
-  </si>
-  <si>
     <t>TON</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>TSA</t>
-  </si>
-  <si>
     <t>South Asia (IDA &amp; IBRD countries) aggregate.</t>
   </si>
   <si>
-    <t>South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD countries) aggregate.</t>
-  </si>
-  <si>
-    <t>Sub-Saharan Africa (IDA &amp; IBRD)</t>
-  </si>
-  <si>
     <t>TTO</t>
   </si>
   <si>
@@ -1674,12 +1248,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>TUV</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
     <t>TZA</t>
   </si>
   <si>
@@ -1698,9 +1266,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>UMC</t>
-  </si>
-  <si>
     <t>Upper middle income group aggregate. Upper-middle-income economies are those in which 2019 GNI per capita was between $4,046 and $12,535.</t>
   </si>
   <si>
@@ -1734,12 +1299,6 @@
     <t>Venezuela, RB</t>
   </si>
   <si>
-    <t>VGB</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
     <t>VIR</t>
   </si>
   <si>
@@ -1758,28 +1317,13 @@
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>WLD</t>
-  </si>
-  <si>
     <t>World aggregate.</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>WSM</t>
   </si>
   <si>
-    <t>Fiscal year ends on June 30; reporting period for national accounts data: FY.</t>
-  </si>
-  <si>
     <t>Samoa</t>
-  </si>
-  <si>
-    <t>XKX</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
   </si>
   <si>
     <t>YEM</t>
@@ -1813,17 +1357,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1849,9 +1386,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2132,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,14 +1735,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2215,27 +1754,27 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,13 +1782,16 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,7 +1799,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -2277,38 +1819,38 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -2319,114 +1861,114 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -2437,16 +1979,13 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2457,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -2465,97 +2004,100 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>76</v>
@@ -2566,105 +2108,105 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>80</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
         <v>85</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2673,26 +2215,26 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -2701,107 +2243,113 @@
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
         <v>106</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
         <v>108</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2810,224 +2358,251 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" t="s">
         <v>127</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
         <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
         <v>133</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
         <v>135</v>
-      </c>
-      <c r="D56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
         <v>140</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
         <v>142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
         <v>144</v>
-      </c>
-      <c r="D60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
         <v>147</v>
-      </c>
-      <c r="B61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
         <v>149</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -3035,38 +2610,44 @@
       <c r="C64" t="s">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
@@ -3075,88 +2656,88 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
-      <c r="D68" t="s">
-        <v>169</v>
-      </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
@@ -3165,91 +2746,103 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" t="s">
         <v>189</v>
-      </c>
-      <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
         <v>192</v>
@@ -3260,13 +2853,10 @@
         <v>193</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>196</v>
       </c>
       <c r="E80" t="s">
         <v>194</v>
@@ -3283,26 +2873,29 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
         <v>198</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -3333,10 +2926,13 @@
         <v>204</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>75</v>
       </c>
       <c r="E85" t="s">
         <v>205</v>
@@ -3347,13 +2943,10 @@
         <v>206</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
         <v>207</v>
@@ -3363,11 +2956,17 @@
       <c r="A87" t="s">
         <v>208</v>
       </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
       <c r="D87" t="s">
         <v>211</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3375,10 +2974,10 @@
         <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>212</v>
@@ -3389,13 +2988,10 @@
         <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>216</v>
       </c>
       <c r="E89" t="s">
         <v>214</v>
@@ -3405,130 +3001,151 @@
       <c r="A90" t="s">
         <v>215</v>
       </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
         <v>218</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" t="s">
         <v>220</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>231</v>
-      </c>
-      <c r="D96" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>234</v>
-      </c>
-      <c r="D97" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -3537,32 +3154,32 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
@@ -3571,88 +3188,88 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>256</v>
       </c>
       <c r="E107" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -3660,198 +3277,210 @@
       <c r="C108" t="s">
         <v>17</v>
       </c>
+      <c r="D108" t="s">
+        <v>259</v>
+      </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
       </c>
-      <c r="D109" t="s">
-        <v>78</v>
-      </c>
       <c r="E109" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>265</v>
       </c>
       <c r="E110" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="E111" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>284</v>
       </c>
       <c r="E119" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C121" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" t="s">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
@@ -3860,577 +3489,634 @@
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>296</v>
       </c>
       <c r="E124" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E126" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
         <v>302</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
         <v>304</v>
-      </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" t="s">
         <v>306</v>
-      </c>
-      <c r="B129" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" t="s">
-        <v>309</v>
-      </c>
-      <c r="E129" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
         <v>308</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" t="s">
         <v>310</v>
-      </c>
-      <c r="D131" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
         <v>312</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>259</v>
+      </c>
+      <c r="E133" t="s">
         <v>314</v>
-      </c>
-      <c r="D133" t="s">
-        <v>317</v>
-      </c>
-      <c r="E133" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
         <v>316</v>
-      </c>
-      <c r="B134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" t="s">
-        <v>320</v>
-      </c>
-      <c r="E134" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
         <v>319</v>
       </c>
-      <c r="B135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" t="s">
-        <v>323</v>
-      </c>
       <c r="E135" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
-      <c r="D136" t="s">
-        <v>326</v>
-      </c>
       <c r="E136" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>26</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
         <v>325</v>
       </c>
-      <c r="B137" t="s">
-        <v>29</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
-      </c>
       <c r="E137" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E139" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E140" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E142" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" t="s">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" t="s">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>75</v>
       </c>
       <c r="E148" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>360</v>
-      </c>
-      <c r="D152" t="s">
-        <v>363</v>
+        <v>354</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>359</v>
       </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>361</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>364</v>
       </c>
       <c r="E155" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B156" t="s">
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" t="s">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
+      <c r="D158" t="s">
+        <v>373</v>
+      </c>
       <c r="E158" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>211</v>
       </c>
       <c r="E159" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>375</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
         <v>378</v>
       </c>
-      <c r="B160" t="s">
-        <v>29</v>
-      </c>
-      <c r="C160" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" t="s">
-        <v>381</v>
-      </c>
       <c r="E160" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>380</v>
-      </c>
-      <c r="D161" t="s">
-        <v>78</v>
+        <v>377</v>
+      </c>
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>62</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>382</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
         <v>384</v>
       </c>
-      <c r="B163" t="s">
-        <v>29</v>
-      </c>
-      <c r="C163" t="s">
-        <v>6</v>
-      </c>
       <c r="E163" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
@@ -4438,19 +4124,22 @@
       <c r="C164" t="s">
         <v>9</v>
       </c>
+      <c r="D164" t="s">
+        <v>388</v>
+      </c>
       <c r="E164" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
         <v>389</v>
@@ -4461,13 +4150,10 @@
         <v>390</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" t="s">
-        <v>393</v>
+        <v>9</v>
       </c>
       <c r="E166" t="s">
         <v>391</v>
@@ -4481,10 +4167,13 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>394</v>
       </c>
       <c r="E167" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4492,13 +4181,13 @@
         <v>395</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E168" t="s">
         <v>396</v>
@@ -4506,16 +4195,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="E169" t="s">
         <v>399</v>
@@ -4523,85 +4212,97 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
-      <c r="D170" t="s">
-        <v>78</v>
-      </c>
       <c r="E170" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B173" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>408</v>
-      </c>
-      <c r="D174" t="s">
-        <v>31</v>
+        <v>409</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
       </c>
+      <c r="D175" t="s">
+        <v>413</v>
+      </c>
       <c r="E175" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -4610,1124 +4311,184 @@
         <v>6</v>
       </c>
       <c r="E176" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E177" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
-      <c r="D178" t="s">
-        <v>346</v>
-      </c>
       <c r="E178" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>425</v>
-      </c>
-      <c r="E181" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>424</v>
-      </c>
-      <c r="D182" t="s">
-        <v>31</v>
+        <v>426</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>430</v>
       </c>
       <c r="E183" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" t="s">
         <v>432</v>
-      </c>
-      <c r="E184" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>75</v>
       </c>
       <c r="E185" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
       </c>
+      <c r="D186" t="s">
+        <v>438</v>
+      </c>
       <c r="E186" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B187" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>439</v>
-      </c>
-      <c r="E187" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>438</v>
-      </c>
-      <c r="D188" t="s">
-        <v>442</v>
+        <v>440</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
         <v>441</v>
-      </c>
-      <c r="E189" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>444</v>
-      </c>
-      <c r="B190" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>446</v>
-      </c>
-      <c r="B191" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6</v>
-      </c>
-      <c r="E191" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>448</v>
-      </c>
-      <c r="B192" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
-      </c>
-      <c r="E192" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>450</v>
-      </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>452</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>454</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>455</v>
-      </c>
-      <c r="B196" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>457</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>459</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>13</v>
-      </c>
-      <c r="D198" t="s">
-        <v>78</v>
-      </c>
-      <c r="E198" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>461</v>
-      </c>
-      <c r="B199" t="s">
-        <v>29</v>
-      </c>
-      <c r="C199" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>463</v>
-      </c>
-      <c r="B200" t="s">
-        <v>29</v>
-      </c>
-      <c r="C200" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>465</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>467</v>
-      </c>
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>469</v>
-      </c>
-      <c r="B203" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>471</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>9</v>
-      </c>
-      <c r="D204" t="s">
-        <v>474</v>
-      </c>
-      <c r="E204" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>473</v>
-      </c>
-      <c r="B205" t="s">
-        <v>16</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>477</v>
-      </c>
-      <c r="E205" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>476</v>
-      </c>
-      <c r="E206" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>479</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" t="s">
-        <v>482</v>
-      </c>
-      <c r="E207" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>481</v>
-      </c>
-      <c r="D208" t="s">
-        <v>484</v>
-      </c>
-      <c r="E208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>483</v>
-      </c>
-      <c r="D209" t="s">
-        <v>487</v>
-      </c>
-      <c r="E209" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>486</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>489</v>
-      </c>
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>492</v>
-      </c>
-      <c r="E211" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>491</v>
-      </c>
-      <c r="B212" t="s">
-        <v>16</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" t="s">
-        <v>495</v>
-      </c>
-      <c r="E212" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>494</v>
-      </c>
-      <c r="B213" t="s">
-        <v>16</v>
-      </c>
-      <c r="C213" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" t="s">
-        <v>272</v>
-      </c>
-      <c r="E213" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>497</v>
-      </c>
-      <c r="B214" t="s">
-        <v>16</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" t="s">
-        <v>500</v>
-      </c>
-      <c r="E214" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>499</v>
-      </c>
-      <c r="B215" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>502</v>
-      </c>
-      <c r="B216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="E216" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>504</v>
-      </c>
-      <c r="B217" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="E217" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>506</v>
-      </c>
-      <c r="B218" t="s">
-        <v>23</v>
-      </c>
-      <c r="C218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>508</v>
-      </c>
-      <c r="B219" t="s">
-        <v>5</v>
-      </c>
-      <c r="C219" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>510</v>
-      </c>
-      <c r="B220" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" t="s">
-        <v>513</v>
-      </c>
-      <c r="E220" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>512</v>
-      </c>
-      <c r="D221" t="s">
-        <v>516</v>
-      </c>
-      <c r="E221" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>515</v>
-      </c>
-      <c r="E222" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>518</v>
-      </c>
-      <c r="B223" t="s">
-        <v>12</v>
-      </c>
-      <c r="C223" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" t="s">
-        <v>521</v>
-      </c>
-      <c r="E223" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>520</v>
-      </c>
-      <c r="B224" t="s">
-        <v>29</v>
-      </c>
-      <c r="C224" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>523</v>
-      </c>
-      <c r="B225" t="s">
-        <v>16</v>
-      </c>
-      <c r="C225" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>525</v>
-      </c>
-      <c r="B226" t="s">
-        <v>16</v>
-      </c>
-      <c r="C226" t="s">
-        <v>17</v>
-      </c>
-      <c r="D226" t="s">
-        <v>528</v>
-      </c>
-      <c r="E226" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>527</v>
-      </c>
-      <c r="E227" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>530</v>
-      </c>
-      <c r="B228" t="s">
-        <v>29</v>
-      </c>
-      <c r="C228" t="s">
-        <v>13</v>
-      </c>
-      <c r="D228" t="s">
-        <v>533</v>
-      </c>
-      <c r="E228" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>532</v>
-      </c>
-      <c r="E229" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>535</v>
-      </c>
-      <c r="B230" t="s">
-        <v>29</v>
-      </c>
-      <c r="C230" t="s">
-        <v>17</v>
-      </c>
-      <c r="D230" t="s">
-        <v>538</v>
-      </c>
-      <c r="E230" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>537</v>
-      </c>
-      <c r="D231" t="s">
-        <v>541</v>
-      </c>
-      <c r="E231" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>540</v>
-      </c>
-      <c r="E232" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>543</v>
-      </c>
-      <c r="B233" t="s">
-        <v>5</v>
-      </c>
-      <c r="C233" t="s">
-        <v>6</v>
-      </c>
-      <c r="E233" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>545</v>
-      </c>
-      <c r="B234" t="s">
-        <v>23</v>
-      </c>
-      <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="E234" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>547</v>
-      </c>
-      <c r="B235" t="s">
-        <v>16</v>
-      </c>
-      <c r="C235" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>549</v>
-      </c>
-      <c r="B236" t="s">
-        <v>29</v>
-      </c>
-      <c r="C236" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>551</v>
-      </c>
-      <c r="B237" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" t="s">
-        <v>31</v>
-      </c>
-      <c r="E237" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>553</v>
-      </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
-        <v>9</v>
-      </c>
-      <c r="E238" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>555</v>
-      </c>
-      <c r="B239" t="s">
-        <v>16</v>
-      </c>
-      <c r="C239" t="s">
-        <v>13</v>
-      </c>
-      <c r="D239" t="s">
-        <v>558</v>
-      </c>
-      <c r="E239" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>557</v>
-      </c>
-      <c r="E240" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>559</v>
-      </c>
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" t="s">
-        <v>6</v>
-      </c>
-      <c r="E241" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>561</v>
-      </c>
-      <c r="B242" t="s">
-        <v>62</v>
-      </c>
-      <c r="C242" t="s">
-        <v>6</v>
-      </c>
-      <c r="E242" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>563</v>
-      </c>
-      <c r="B243" t="s">
-        <v>16</v>
-      </c>
-      <c r="C243" t="s">
-        <v>13</v>
-      </c>
-      <c r="E243" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>565</v>
-      </c>
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-      <c r="C244" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>567</v>
-      </c>
-      <c r="B245" t="s">
-        <v>5</v>
-      </c>
-      <c r="C245" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>569</v>
-      </c>
-      <c r="B246" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-      <c r="E246" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>571</v>
-      </c>
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-      <c r="C247" t="s">
-        <v>6</v>
-      </c>
-      <c r="E247" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>573</v>
-      </c>
-      <c r="B248" t="s">
-        <v>29</v>
-      </c>
-      <c r="C248" t="s">
-        <v>13</v>
-      </c>
-      <c r="E248" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>575</v>
-      </c>
-      <c r="B249" t="s">
-        <v>29</v>
-      </c>
-      <c r="C249" t="s">
-        <v>13</v>
-      </c>
-      <c r="D249" t="s">
-        <v>578</v>
-      </c>
-      <c r="E249" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>577</v>
-      </c>
-      <c r="D250" t="s">
-        <v>581</v>
-      </c>
-      <c r="E250" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>580</v>
-      </c>
-      <c r="B251" t="s">
-        <v>29</v>
-      </c>
-      <c r="C251" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>583</v>
-      </c>
-      <c r="B252" t="s">
-        <v>16</v>
-      </c>
-      <c r="C252" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>585</v>
-      </c>
-      <c r="B253" t="s">
-        <v>23</v>
-      </c>
-      <c r="C253" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" t="s">
-        <v>78</v>
-      </c>
-      <c r="E253" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>587</v>
-      </c>
-      <c r="B254" t="s">
-        <v>12</v>
-      </c>
-      <c r="C254" t="s">
-        <v>17</v>
-      </c>
-      <c r="D254" t="s">
-        <v>590</v>
-      </c>
-      <c r="E254" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>589</v>
-      </c>
-      <c r="B255" t="s">
-        <v>12</v>
-      </c>
-      <c r="C255" t="s">
-        <v>13</v>
-      </c>
-      <c r="E255" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>592</v>
-      </c>
-      <c r="B256" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/employment/economy_types.xlsx
+++ b/Dataset/employment/economy_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srihaasa\Documents\gfiles\CSCI5502-DataMining_Project\Dataset\employment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CD9A8-C802-409C-B296-9363BD1F0122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D006CC4D-F4A7-4854-AF24-073CAD314235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1670,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
       <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
